--- a/biology/Microbiologie/Thermotoga/Thermotoga.xlsx
+++ b/biology/Microbiologie/Thermotoga/Thermotoga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thermotoga est un genre de bactéries extrémophiles thermophiles à Gram négatif de la famille des Thermotogaceae. Son nom, formé sur le grec thermê (θέρμη,-ης : chaleur) et sur le latin toga (toge), fait référence à leur caractère thermophile et à la gaine qui entoure ces bactéries.
 Ce sont des bactéries anaérobies et hétérotrophes. La cellule est en forme de bâtonnet entouré d'une membrane cellulaire externe (la « toga » ou toge). Les enzymes de Thermotoga sont connues pour être actives à des températures élevées et ont des applications biotechnologiques[Lesquelles ?].
-Thermotoga maritima vit dans des conditions anaérobies dans des sédiments marins près des cheminées géothermales au large de l'Italie (Vulcano). Elle peut se développer jusqu'à 90 °C. Son génome est entièrement séquencé. Ce génome illustre l'importance des transferts horizontaux de gènes dans l'évolution des bactéries : environ 20 % des gènes de Thermotoga proviennent des archées[2].
+Thermotoga maritima vit dans des conditions anaérobies dans des sédiments marins près des cheminées géothermales au large de l'Italie (Vulcano). Elle peut se développer jusqu'à 90 °C. Son génome est entièrement séquencé. Ce génome illustre l'importance des transferts horizontaux de gènes dans l'évolution des bactéries : environ 20 % des gènes de Thermotoga proviennent des archées.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (2 décembre 2022)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (2 décembre 2022) :
 Thermotoga caldifontis Mori et al. 2014
 Thermotoga maritima Stetter &amp; Huber 1986 – espèce type
 Thermotoga neapolitana Jannasch et al. 1989
